--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_19.08.2024_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_19.08.2024_output.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -503,13 +503,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>19.582</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19.491</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.09100000000000108</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.46</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -537,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>277.92</v>
+        <v>19.53</v>
       </c>
       <c r="H3" t="n">
-        <v>277.29</v>
+        <v>19.432</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6299999999999955</v>
+        <v>0.09800000000000253</v>
       </c>
       <c r="J3" t="n">
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -566,7 +574,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -575,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>278</v>
+        <v>19.344</v>
       </c>
       <c r="H4" t="n">
-        <v>277.74</v>
+        <v>19.3</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2599999999999909</v>
+        <v>-0.04400000000000048</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="5">
@@ -593,13 +601,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>short</t>
@@ -611,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>278.44</v>
+        <v>58.07</v>
       </c>
       <c r="H5" t="n">
-        <v>270.14</v>
+        <v>57.9</v>
       </c>
       <c r="I5" t="n">
-        <v>8.300000000000011</v>
+        <v>0.1700000000000017</v>
       </c>
       <c r="J5" t="n">
-        <v>2.98</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -640,7 +650,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -649,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>277.92</v>
+        <v>57.75</v>
       </c>
       <c r="H6" t="n">
-        <v>277.29</v>
+        <v>57.79</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6299999999999955</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="J6" t="n">
-        <v>0.23</v>
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -678,7 +688,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -687,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>278</v>
+        <v>1361</v>
       </c>
       <c r="H7" t="n">
-        <v>277.74</v>
+        <v>1363</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2599999999999909</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
@@ -705,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -725,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>278.44</v>
+        <v>1364</v>
       </c>
       <c r="H8" t="n">
-        <v>277.93</v>
+        <v>1362.2</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5099999999999909</v>
+        <v>1.799999999999955</v>
       </c>
       <c r="J8" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9">
@@ -743,7 +753,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -763,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>278.29</v>
+        <v>12.182</v>
       </c>
       <c r="H9" t="n">
-        <v>277.84</v>
+        <v>12.179</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4500000000000455</v>
+        <v>0.003000000000000114</v>
       </c>
       <c r="J9" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
@@ -781,7 +791,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -792,7 +802,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -801,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>278.3</v>
+        <v>12.171</v>
       </c>
       <c r="H10" t="n">
-        <v>277.93</v>
+        <v>12.182</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3700000000000045</v>
+        <v>0.01100000000000101</v>
       </c>
       <c r="J10" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
@@ -819,7 +829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -830,7 +840,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -839,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>278.57</v>
+        <v>12.159</v>
       </c>
       <c r="H11" t="n">
-        <v>278.26</v>
+        <v>12.152</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3100000000000023</v>
+        <v>-0.00700000000000145</v>
       </c>
       <c r="J11" t="n">
-        <v>0.11</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="12">
@@ -857,13 +867,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>short</t>
@@ -875,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>278.76</v>
+        <v>127.62</v>
       </c>
       <c r="H12" t="n">
-        <v>270.4</v>
+        <v>126.62</v>
       </c>
       <c r="I12" t="n">
-        <v>8.360000000000014</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0.7799999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -913,16 +925,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>127.29</v>
+        <v>126.23</v>
       </c>
       <c r="H13" t="n">
-        <v>127.55</v>
+        <v>126.3</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2599999999999909</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14">
@@ -951,16 +963,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>127.09</v>
+        <v>125.49</v>
       </c>
       <c r="H14" t="n">
-        <v>127.24</v>
+        <v>125.88</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1499999999999915</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="J14" t="n">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="15">
@@ -969,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -989,16 +1001,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>127.68</v>
+        <v>126.8</v>
       </c>
       <c r="H15" t="n">
-        <v>127.12</v>
+        <v>126.46</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5600000000000023</v>
+        <v>0.3400000000000034</v>
       </c>
       <c r="J15" t="n">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="16">
@@ -1007,16 +1019,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1025,16 +1039,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>127.56</v>
+        <v>125.88</v>
       </c>
       <c r="H16" t="n">
-        <v>126.88</v>
+        <v>125.8</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6800000000000068</v>
+        <v>-0.07999999999999829</v>
       </c>
       <c r="J16" t="n">
-        <v>0.53</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="17">
@@ -1043,7 +1057,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1063,16 +1077,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6317</v>
+        <v>125.26</v>
       </c>
       <c r="H17" t="n">
-        <v>6329.5</v>
+        <v>124.66</v>
       </c>
       <c r="I17" t="n">
-        <v>12.5</v>
+        <v>-0.6000000000000085</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="18">
@@ -1092,7 +1106,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1101,16 +1115,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6301</v>
+        <v>6278.5</v>
       </c>
       <c r="H18" t="n">
-        <v>6313</v>
+        <v>6242.5</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J18" t="n">
-        <v>0.19</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -1125,10 +1139,12 @@
       <c r="C19" t="b">
         <v>1</v>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1137,16 +1153,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6318.5</v>
+        <v>6226.5</v>
       </c>
       <c r="H19" t="n">
-        <v>6187.5</v>
+        <v>6209</v>
       </c>
       <c r="I19" t="n">
-        <v>131</v>
+        <v>-17.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.07</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="20">
@@ -1155,7 +1171,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1166,7 +1182,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1175,16 +1191,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>493.1</v>
+        <v>6205</v>
       </c>
       <c r="H20" t="n">
-        <v>493.35</v>
+        <v>6187.5</v>
       </c>
       <c r="I20" t="n">
-        <v>0.25</v>
+        <v>17.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="21">
@@ -1193,7 +1209,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1213,16 +1229,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>223.9</v>
+        <v>6215</v>
       </c>
       <c r="H21" t="n">
-        <v>223.62</v>
+        <v>6198</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2800000000000011</v>
+        <v>17</v>
       </c>
       <c r="J21" t="n">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="22">
@@ -1231,7 +1247,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1251,16 +1267,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>223.35</v>
+        <v>49.31</v>
       </c>
       <c r="H22" t="n">
-        <v>223.55</v>
+        <v>49.1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2000000000000171</v>
+        <v>-0.2100000000000009</v>
       </c>
       <c r="J22" t="n">
-        <v>0.09</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="23">
@@ -1269,7 +1285,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1280,7 +1296,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1289,16 +1305,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>223.9</v>
+        <v>49</v>
       </c>
       <c r="H23" t="n">
-        <v>223.57</v>
+        <v>48.92</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3300000000000125</v>
+        <v>-0.07999999999999829</v>
       </c>
       <c r="J23" t="n">
-        <v>0.15</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="24">
@@ -1307,7 +1323,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1327,16 +1343,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1024.6</v>
+        <v>219.52</v>
       </c>
       <c r="H24" t="n">
-        <v>1020</v>
+        <v>213.8</v>
       </c>
       <c r="I24" t="n">
-        <v>-4.599999999999909</v>
+        <v>-5.719999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.45</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="25">
@@ -1345,7 +1361,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1365,16 +1381,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1014.4</v>
+        <v>147.37</v>
       </c>
       <c r="H25" t="n">
-        <v>1016.4</v>
+        <v>146.09</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>-1.280000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2</v>
+        <v>-0.8699999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1383,13 +1399,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>short</t>
@@ -1401,16 +1419,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1018.8</v>
+        <v>146.25</v>
       </c>
       <c r="H26" t="n">
-        <v>1022.8</v>
+        <v>145.71</v>
       </c>
       <c r="I26" t="n">
-        <v>-4</v>
+        <v>0.539999999999992</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="27">
@@ -1419,7 +1437,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C27" t="b">
@@ -1430,7 +1448,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1439,16 +1457,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>12.124</v>
+        <v>160.08</v>
       </c>
       <c r="H27" t="n">
-        <v>12.106</v>
+        <v>160.38</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01800000000000068</v>
+        <v>0.2999999999999829</v>
       </c>
       <c r="J27" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="28">
@@ -1457,7 +1475,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1477,16 +1495,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>12.072</v>
+        <v>160.04</v>
       </c>
       <c r="H28" t="n">
-        <v>12.085</v>
+        <v>159.4</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01300000000000168</v>
+        <v>-0.6399999999999864</v>
       </c>
       <c r="J28" t="n">
-        <v>0.11</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="29">
@@ -1495,7 +1513,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1515,16 +1533,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>12.099</v>
+        <v>1017.2</v>
       </c>
       <c r="H29" t="n">
-        <v>12.086</v>
+        <v>1015.8</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0129999999999999</v>
+        <v>1.400000000000091</v>
       </c>
       <c r="J29" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="30">
@@ -1533,7 +1551,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C30" t="b">
@@ -1553,16 +1571,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>125</v>
+        <v>1011.8</v>
       </c>
       <c r="H30" t="n">
-        <v>125.22</v>
+        <v>1014.8</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2199999999999989</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="31">
@@ -1571,7 +1589,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C31" t="b">
@@ -1582,7 +1600,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1591,16 +1609,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>124.6</v>
+        <v>1017.6</v>
       </c>
       <c r="H31" t="n">
-        <v>124.8</v>
+        <v>1014.2</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2000000000000028</v>
+        <v>3.399999999999977</v>
       </c>
       <c r="J31" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="32">
@@ -1609,7 +1627,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -1620,7 +1638,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1629,16 +1647,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>125.02</v>
+        <v>1013</v>
       </c>
       <c r="H32" t="n">
-        <v>125.22</v>
+        <v>1015.8</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.2000000000000028</v>
+        <v>2.799999999999955</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.16</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="33">
@@ -1647,16 +1665,18 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1665,16 +1685,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>126.7</v>
+        <v>1013.2</v>
       </c>
       <c r="H33" t="n">
-        <v>126.7</v>
+        <v>1015.6</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2.399999999999977</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="34">
@@ -1683,7 +1703,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C34" t="b">
@@ -1694,7 +1714,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1703,16 +1723,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>161.02</v>
+        <v>1017.6</v>
       </c>
       <c r="H34" t="n">
-        <v>162</v>
+        <v>1020.4</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9799999999999898</v>
+        <v>-2.799999999999955</v>
       </c>
       <c r="J34" t="n">
-        <v>0.61</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="35">
@@ -1721,7 +1741,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C35" t="b">
@@ -1741,16 +1761,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>162</v>
+        <v>492.3</v>
       </c>
       <c r="H35" t="n">
-        <v>162.14</v>
+        <v>491.4</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.1399999999999864</v>
+        <v>0.9000000000000341</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.09</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="36">
@@ -1759,16 +1779,18 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1777,16 +1799,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>162.6</v>
+        <v>489.55</v>
       </c>
       <c r="H36" t="n">
-        <v>158.84</v>
+        <v>488.75</v>
       </c>
       <c r="I36" t="n">
-        <v>3.759999999999991</v>
+        <v>-0.8000000000000114</v>
       </c>
       <c r="J36" t="n">
-        <v>2.31</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="37">
@@ -1795,7 +1817,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C37" t="b">
@@ -1806,7 +1828,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1815,16 +1837,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>49.665</v>
+        <v>488.9</v>
       </c>
       <c r="H37" t="n">
-        <v>49.755</v>
+        <v>487.7</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09000000000000341</v>
+        <v>1.199999999999989</v>
       </c>
       <c r="J37" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="38">
@@ -1833,7 +1855,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1853,16 +1875,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>49.66</v>
+        <v>272.39</v>
       </c>
       <c r="H38" t="n">
-        <v>49.725</v>
+        <v>271.62</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06500000000000483</v>
+        <v>-0.7699999999999818</v>
       </c>
       <c r="J38" t="n">
-        <v>0.13</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="39">
@@ -1871,16 +1893,18 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1889,16 +1913,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>49.8</v>
+        <v>270.21</v>
       </c>
       <c r="H39" t="n">
-        <v>48.65</v>
+        <v>270.4</v>
       </c>
       <c r="I39" t="n">
-        <v>1.149999999999999</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="J39" t="n">
-        <v>2.31</v>
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1907,7 +1931,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1918,7 +1942,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1927,16 +1951,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1381</v>
+        <v>270.99</v>
       </c>
       <c r="H40" t="n">
-        <v>1383.2</v>
+        <v>270.09</v>
       </c>
       <c r="I40" t="n">
-        <v>2.200000000000045</v>
+        <v>0.9000000000000341</v>
       </c>
       <c r="J40" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="41">
@@ -1945,7 +1969,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C41" t="b">
@@ -1965,16 +1989,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1375.8</v>
+        <v>273.61</v>
       </c>
       <c r="H41" t="n">
-        <v>1379.2</v>
+        <v>271.84</v>
       </c>
       <c r="I41" t="n">
-        <v>3.400000000000091</v>
+        <v>-1.770000000000039</v>
       </c>
       <c r="J41" t="n">
-        <v>0.25</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="42">
@@ -1983,7 +2007,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C42" t="b">
@@ -1994,7 +2018,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2003,16 +2027,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1380.2</v>
+        <v>270.32</v>
       </c>
       <c r="H42" t="n">
-        <v>1376.2</v>
+        <v>271.26</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0.9399999999999977</v>
       </c>
       <c r="J42" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="43">
@@ -2021,16 +2045,18 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2039,16 +2065,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1384.2</v>
+        <v>270.2</v>
       </c>
       <c r="H43" t="n">
-        <v>1351.2</v>
+        <v>270.77</v>
       </c>
       <c r="I43" t="n">
-        <v>33</v>
+        <v>0.5699999999999932</v>
       </c>
       <c r="J43" t="n">
-        <v>2.38</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="44">
@@ -2057,7 +2083,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -2077,16 +2103,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>58.91</v>
+        <v>271.58</v>
       </c>
       <c r="H44" t="n">
-        <v>58.81</v>
+        <v>270.36</v>
       </c>
       <c r="I44" t="n">
-        <v>0.09999999999999432</v>
+        <v>1.21999999999997</v>
       </c>
       <c r="J44" t="n">
-        <v>0.17</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="45">
@@ -2095,7 +2121,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C45" t="b">
@@ -2115,16 +2141,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>58.74</v>
+        <v>54.51</v>
       </c>
       <c r="H45" t="n">
-        <v>58.83</v>
+        <v>53.88</v>
       </c>
       <c r="I45" t="n">
-        <v>0.08999999999999631</v>
+        <v>-0.6299999999999955</v>
       </c>
       <c r="J45" t="n">
-        <v>0.15</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="46">
@@ -2133,7 +2159,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C46" t="b">
@@ -2153,16 +2179,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>58.68</v>
+        <v>666.2</v>
       </c>
       <c r="H46" t="n">
-        <v>58.72</v>
+        <v>666.2</v>
       </c>
       <c r="I46" t="n">
-        <v>0.03999999999999915</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.06999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2171,7 +2197,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C47" t="b">
@@ -2182,7 +2208,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2191,16 +2217,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>98.56999999999999</v>
+        <v>668.15</v>
       </c>
       <c r="H47" t="n">
-        <v>98.67</v>
+        <v>665.55</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1000000000000085</v>
+        <v>2.600000000000023</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="48">
@@ -2209,7 +2235,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C48" t="b">
@@ -2220,7 +2246,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2229,16 +2255,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>98.94</v>
+        <v>664</v>
       </c>
       <c r="H48" t="n">
-        <v>98.76000000000001</v>
+        <v>666.85</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1799999999999926</v>
+        <v>2.850000000000023</v>
       </c>
       <c r="J48" t="n">
-        <v>0.18</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="49">
@@ -2247,13 +2273,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>short</t>
@@ -2265,16 +2293,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>99.04000000000001</v>
+        <v>152.16</v>
       </c>
       <c r="H49" t="n">
-        <v>98.84</v>
+        <v>151.36</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2000000000000028</v>
+        <v>0.7999999999999829</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="50">
@@ -2283,7 +2311,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C50" t="b">
@@ -2303,16 +2331,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>54.7</v>
+        <v>150.36</v>
       </c>
       <c r="H50" t="n">
-        <v>54.5</v>
+        <v>149.98</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.2000000000000028</v>
+        <v>-0.3800000000000239</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.37</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="51">
@@ -2321,13 +2349,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>short</t>
@@ -2339,16 +2369,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>54.68</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>53.52</v>
+        <v>98.13</v>
       </c>
       <c r="I51" t="n">
-        <v>1.159999999999997</v>
+        <v>0.5200000000000102</v>
       </c>
       <c r="J51" t="n">
-        <v>2.12</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="52">
@@ -2357,7 +2387,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C52" t="b">
@@ -2368,7 +2398,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2377,16 +2407,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>152.98</v>
+        <v>97.81</v>
       </c>
       <c r="H52" t="n">
-        <v>152.66</v>
+        <v>97.8</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3199999999999932</v>
+        <v>-0.01000000000000512</v>
       </c>
       <c r="J52" t="n">
-        <v>0.21</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="53">
@@ -2395,15 +2425,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
-      <c r="D53" t="b">
-        <v>1</v>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>long</t>
@@ -2415,16 +2443,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>152.16</v>
+        <v>1356.6</v>
       </c>
       <c r="H53" t="n">
-        <v>152.78</v>
+        <v>1351.2</v>
       </c>
       <c r="I53" t="n">
-        <v>0.6200000000000045</v>
+        <v>-5.399999999999864</v>
       </c>
       <c r="J53" t="n">
-        <v>0.41</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="54">
@@ -2433,7 +2461,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C54" t="b">
@@ -2451,16 +2479,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>153.28</v>
+        <v>126.2</v>
       </c>
       <c r="H54" t="n">
-        <v>150.52</v>
+        <v>126.88</v>
       </c>
       <c r="I54" t="n">
-        <v>2.759999999999991</v>
+        <v>-0.6799999999999926</v>
       </c>
       <c r="J54" t="n">
-        <v>1.8</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="55">
@@ -2469,18 +2497,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
-      <c r="D55" t="b">
-        <v>1</v>
-      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2489,16 +2515,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>19.759</v>
+        <v>125.02</v>
       </c>
       <c r="H55" t="n">
-        <v>19.752</v>
+        <v>126.7</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.00700000000000145</v>
+        <v>-1.680000000000007</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.04</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="56">
@@ -2507,7 +2533,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C56" t="b">
@@ -2516,7 +2542,7 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2525,16 +2551,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>19.885</v>
+        <v>6182</v>
       </c>
       <c r="H56" t="n">
-        <v>19.21</v>
+        <v>6187.5</v>
       </c>
       <c r="I56" t="n">
-        <v>0.6750000000000007</v>
+        <v>5.5</v>
       </c>
       <c r="J56" t="n">
-        <v>3.39</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="57">
@@ -2543,18 +2569,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
-      <c r="D57" t="b">
-        <v>1</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2563,16 +2587,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>677.35</v>
+        <v>48.695</v>
       </c>
       <c r="H57" t="n">
-        <v>675.6</v>
+        <v>48.65</v>
       </c>
       <c r="I57" t="n">
-        <v>1.75</v>
+        <v>-0.04500000000000171</v>
       </c>
       <c r="J57" t="n">
-        <v>0.26</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="58">
@@ -2581,18 +2605,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
-      <c r="D58" t="b">
-        <v>1</v>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2601,16 +2623,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>674.1</v>
+        <v>214.4</v>
       </c>
       <c r="H58" t="n">
-        <v>674.95</v>
+        <v>215.28</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8500000000000227</v>
+        <v>-0.8799999999999955</v>
       </c>
       <c r="J58" t="n">
-        <v>0.13</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="59">
@@ -2625,9 +2647,7 @@
       <c r="C59" t="b">
         <v>1</v>
       </c>
-      <c r="D59" t="b">
-        <v>1</v>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>long</t>
@@ -2639,16 +2659,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>148.75</v>
+        <v>145.23</v>
       </c>
       <c r="H59" t="n">
-        <v>148.59</v>
+        <v>143.16</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.1599999999999966</v>
+        <v>-2.069999999999993</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.11</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="60">
@@ -2657,7 +2677,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C60" t="b">
@@ -2675,16 +2695,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>148.83</v>
+        <v>97.95</v>
       </c>
       <c r="H60" t="n">
-        <v>143.16</v>
+        <v>98.84</v>
       </c>
       <c r="I60" t="n">
-        <v>5.670000000000016</v>
+        <v>-0.8900000000000006</v>
       </c>
       <c r="J60" t="n">
-        <v>3.81</v>
+        <v>-0.91</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2741,45 +2761,45 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.89000000000004</v>
+        <v>10.20000000000005</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.555714285714292</v>
+        <v>1.700000000000008</v>
       </c>
       <c r="E2" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.60000000000014</v>
+        <v>58.5</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>10.65000000000003</v>
+        <v>11.7</v>
       </c>
       <c r="E3" t="n">
-        <v>3.08</v>
+        <v>0.93</v>
       </c>
       <c r="F3" t="n">
-        <v>0.77</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -2789,19 +2809,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.649999999999991</v>
+        <v>0.7800000000000011</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4124999999999979</v>
+        <v>0.1950000000000003</v>
       </c>
       <c r="E4" t="n">
-        <v>1.29</v>
+        <v>0.6099999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -2811,368 +2831,350 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2199999999999989</v>
+        <v>-2.02000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05499999999999972</v>
+        <v>-0.5050000000000026</v>
       </c>
       <c r="E5" t="n">
-        <v>0.18</v>
+        <v>-1.61</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.599999999999994</v>
+        <v>0.9599999999999227</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.533333333333331</v>
+        <v>0.2399999999999807</v>
       </c>
       <c r="E6" t="n">
-        <v>2.83</v>
+        <v>0.36</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04400000000000226</v>
+        <v>-0.03699999999999903</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01466666666666742</v>
+        <v>-0.01233333333333301</v>
       </c>
       <c r="E7" t="n">
-        <v>0.37</v>
+        <v>-0.1899999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.12</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>155.5</v>
+        <v>5.450000000000045</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>51.83333333333334</v>
+        <v>1.816666666666682</v>
       </c>
       <c r="E8" t="n">
-        <v>2.46</v>
+        <v>0.82</v>
       </c>
       <c r="F8" t="n">
-        <v>0.82</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.305000000000007</v>
+        <v>0.32000000000005</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4350000000000023</v>
+        <v>0.1066666666666833</v>
       </c>
       <c r="E9" t="n">
-        <v>2.62</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.87</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8100000000000307</v>
+        <v>1.300000000000011</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2700000000000102</v>
+        <v>0.4333333333333371</v>
       </c>
       <c r="E10" t="n">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="F10" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.480000000000004</v>
+        <v>-2.810000000000002</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1600000000000013</v>
+        <v>-0.9366666666666674</v>
       </c>
       <c r="E11" t="n">
-        <v>0.48</v>
+        <v>-1.93</v>
       </c>
       <c r="F11" t="n">
-        <v>0.16</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2299999999999898</v>
+        <v>-0.3350000000000009</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07666666666666326</v>
+        <v>-0.111666666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>0.39</v>
+        <v>-0.6799999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.13</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.599999999999909</v>
+        <v>0.006999999999999673</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.19999999999997</v>
+        <v>0.002333333333333224</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6399999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.21</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.699999999999989</v>
+        <v>-1.599999999999909</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>1.23333333333333</v>
+        <v>-0.533333333333303</v>
       </c>
       <c r="E14" t="n">
-        <v>2.42</v>
+        <v>-0.12</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.189999999999998</v>
+        <v>-0.3799999999999955</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>3.063333333333333</v>
+        <v>-0.1266666666666652</v>
       </c>
       <c r="E15" t="n">
-        <v>3.3</v>
+        <v>-0.39</v>
       </c>
       <c r="F15" t="n">
-        <v>1.1</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.600000000000023</v>
+        <v>-0.3400000000000034</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1.300000000000011</v>
+        <v>-0.1700000000000017</v>
       </c>
       <c r="E16" t="n">
-        <v>0.39</v>
+        <v>-0.21</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6679999999999993</v>
+        <v>0.2100000000000009</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3339999999999996</v>
+        <v>0.1050000000000004</v>
       </c>
       <c r="E17" t="n">
-        <v>3.35</v>
+        <v>0.36</v>
       </c>
       <c r="F17" t="n">
-        <v>1.68</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9599999999999937</v>
+        <v>-6.599999999999994</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4799999999999969</v>
+        <v>-3.299999999999997</v>
       </c>
       <c r="E18" t="n">
-        <v>1.75</v>
+        <v>-3.02</v>
       </c>
       <c r="F18" t="n">
-        <v>0.88</v>
+        <v>-1.51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.510000000000019</v>
+        <v>0.4199999999999591</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>2.75500000000001</v>
+        <v>0.2099999999999795</v>
       </c>
       <c r="E19" t="n">
-        <v>3.7</v>
+        <v>0.28</v>
       </c>
       <c r="F19" t="n">
-        <v>1.85</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.25</v>
+        <v>-0.6299999999999955</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>-0.6299999999999955</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05</v>
+        <v>-1.16</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
+        <v>-1.16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
